--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Personal_Savings_Rate_PSAVERT.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Personal_Savings_Rate_PSAVERT.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="897">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1959-01-01</t>
@@ -2281,6 +2281,45 @@
     <t>2021-06-01</t>
   </si>
   <si>
+    <t>2021-07-01</t>
+  </si>
+  <si>
+    <t>2021-08-01</t>
+  </si>
+  <si>
+    <t>2021-09-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-12-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2022-02-01</t>
+  </si>
+  <si>
+    <t>2022-03-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-06-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
     <t>11.3</t>
   </si>
   <si>
@@ -2662,10 +2701,10 @@
     <t>15.0</t>
   </si>
   <si>
-    <t>20.2</t>
-  </si>
-  <si>
-    <t>26.9</t>
+    <t>19.9</t>
+  </si>
+  <si>
+    <t>26.6</t>
   </si>
 </sst>
 </file>
@@ -3023,7 +3062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E751"/>
+  <dimension ref="A1:E764"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3060,7 +3099,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3077,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3094,7 +3133,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3111,7 +3150,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3128,7 +3167,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3145,7 +3184,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3162,7 +3201,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3179,7 +3218,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3196,7 +3235,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3213,7 +3252,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3230,7 +3269,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3247,7 +3286,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3264,7 +3303,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3281,7 +3320,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3298,7 +3337,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3315,7 +3354,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3332,7 +3371,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3349,7 +3388,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3366,7 +3405,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3383,7 +3422,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3400,7 +3439,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3417,7 +3456,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3434,7 +3473,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3451,7 +3490,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3468,7 +3507,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3485,7 +3524,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3502,7 +3541,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3519,7 +3558,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3536,7 +3575,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3553,7 +3592,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3570,7 +3609,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3587,7 +3626,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3604,7 +3643,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3621,7 +3660,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3638,7 +3677,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3655,7 +3694,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3672,7 +3711,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3689,7 +3728,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3706,7 +3745,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3723,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3740,7 +3779,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3757,7 +3796,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3774,7 +3813,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3791,7 +3830,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3808,7 +3847,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3825,7 +3864,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3842,7 +3881,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3859,7 +3898,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3876,7 +3915,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3893,7 +3932,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3910,7 +3949,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3927,7 +3966,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3944,7 +3983,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3961,7 +4000,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3978,7 +4017,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3995,7 +4034,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4012,7 +4051,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4029,7 +4068,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4046,7 +4085,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4063,7 +4102,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4080,7 +4119,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4097,7 +4136,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4114,7 +4153,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4131,7 +4170,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4148,7 +4187,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4165,7 +4204,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4182,7 +4221,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4199,7 +4238,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4216,7 +4255,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4233,7 +4272,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4250,7 +4289,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4267,7 +4306,7 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4284,7 +4323,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4301,7 +4340,7 @@
         <v>78</v>
       </c>
       <c r="E75" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4318,7 +4357,7 @@
         <v>79</v>
       </c>
       <c r="E76" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4335,7 +4374,7 @@
         <v>80</v>
       </c>
       <c r="E77" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4352,7 +4391,7 @@
         <v>81</v>
       </c>
       <c r="E78" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4369,7 +4408,7 @@
         <v>82</v>
       </c>
       <c r="E79" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4386,7 +4425,7 @@
         <v>83</v>
       </c>
       <c r="E80" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4403,7 +4442,7 @@
         <v>84</v>
       </c>
       <c r="E81" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4420,7 +4459,7 @@
         <v>85</v>
       </c>
       <c r="E82" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4437,7 +4476,7 @@
         <v>86</v>
       </c>
       <c r="E83" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4454,7 +4493,7 @@
         <v>87</v>
       </c>
       <c r="E84" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4471,7 +4510,7 @@
         <v>88</v>
       </c>
       <c r="E85" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4488,7 +4527,7 @@
         <v>89</v>
       </c>
       <c r="E86" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4505,7 +4544,7 @@
         <v>90</v>
       </c>
       <c r="E87" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4522,7 +4561,7 @@
         <v>91</v>
       </c>
       <c r="E88" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4539,7 +4578,7 @@
         <v>92</v>
       </c>
       <c r="E89" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4556,7 +4595,7 @@
         <v>93</v>
       </c>
       <c r="E90" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4573,7 +4612,7 @@
         <v>94</v>
       </c>
       <c r="E91" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4590,7 +4629,7 @@
         <v>95</v>
       </c>
       <c r="E92" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4607,7 +4646,7 @@
         <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4624,7 +4663,7 @@
         <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4641,7 +4680,7 @@
         <v>98</v>
       </c>
       <c r="E95" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4658,7 +4697,7 @@
         <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4675,7 +4714,7 @@
         <v>100</v>
       </c>
       <c r="E97" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4692,7 +4731,7 @@
         <v>101</v>
       </c>
       <c r="E98" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4709,7 +4748,7 @@
         <v>102</v>
       </c>
       <c r="E99" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4726,7 +4765,7 @@
         <v>103</v>
       </c>
       <c r="E100" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -4743,7 +4782,7 @@
         <v>104</v>
       </c>
       <c r="E101" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -4760,7 +4799,7 @@
         <v>105</v>
       </c>
       <c r="E102" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -4777,7 +4816,7 @@
         <v>106</v>
       </c>
       <c r="E103" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -4794,7 +4833,7 @@
         <v>107</v>
       </c>
       <c r="E104" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -4811,7 +4850,7 @@
         <v>108</v>
       </c>
       <c r="E105" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -4828,7 +4867,7 @@
         <v>109</v>
       </c>
       <c r="E106" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -4845,7 +4884,7 @@
         <v>110</v>
       </c>
       <c r="E107" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -4862,7 +4901,7 @@
         <v>111</v>
       </c>
       <c r="E108" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -4879,7 +4918,7 @@
         <v>112</v>
       </c>
       <c r="E109" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -4896,7 +4935,7 @@
         <v>113</v>
       </c>
       <c r="E110" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -4913,7 +4952,7 @@
         <v>114</v>
       </c>
       <c r="E111" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -4930,7 +4969,7 @@
         <v>115</v>
       </c>
       <c r="E112" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -4947,7 +4986,7 @@
         <v>116</v>
       </c>
       <c r="E113" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -4964,7 +5003,7 @@
         <v>117</v>
       </c>
       <c r="E114" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -4981,7 +5020,7 @@
         <v>118</v>
       </c>
       <c r="E115" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -4998,7 +5037,7 @@
         <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5015,7 +5054,7 @@
         <v>120</v>
       </c>
       <c r="E117" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5032,7 +5071,7 @@
         <v>121</v>
       </c>
       <c r="E118" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5049,7 +5088,7 @@
         <v>122</v>
       </c>
       <c r="E119" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5066,7 +5105,7 @@
         <v>123</v>
       </c>
       <c r="E120" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5083,7 +5122,7 @@
         <v>124</v>
       </c>
       <c r="E121" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5100,7 +5139,7 @@
         <v>125</v>
       </c>
       <c r="E122" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5117,7 +5156,7 @@
         <v>126</v>
       </c>
       <c r="E123" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5134,7 +5173,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5151,7 +5190,7 @@
         <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5168,7 +5207,7 @@
         <v>129</v>
       </c>
       <c r="E126" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5185,7 +5224,7 @@
         <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5202,7 +5241,7 @@
         <v>131</v>
       </c>
       <c r="E128" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5219,7 +5258,7 @@
         <v>132</v>
       </c>
       <c r="E129" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5236,7 +5275,7 @@
         <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5253,7 +5292,7 @@
         <v>134</v>
       </c>
       <c r="E131" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5270,7 +5309,7 @@
         <v>135</v>
       </c>
       <c r="E132" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5287,7 +5326,7 @@
         <v>136</v>
       </c>
       <c r="E133" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -5304,7 +5343,7 @@
         <v>137</v>
       </c>
       <c r="E134" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -5321,7 +5360,7 @@
         <v>138</v>
       </c>
       <c r="E135" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -5338,7 +5377,7 @@
         <v>139</v>
       </c>
       <c r="E136" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -5355,7 +5394,7 @@
         <v>140</v>
       </c>
       <c r="E137" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -5372,7 +5411,7 @@
         <v>141</v>
       </c>
       <c r="E138" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -5389,7 +5428,7 @@
         <v>142</v>
       </c>
       <c r="E139" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -5406,7 +5445,7 @@
         <v>143</v>
       </c>
       <c r="E140" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -5423,7 +5462,7 @@
         <v>144</v>
       </c>
       <c r="E141" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -5440,7 +5479,7 @@
         <v>145</v>
       </c>
       <c r="E142" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -5457,7 +5496,7 @@
         <v>146</v>
       </c>
       <c r="E143" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -5474,7 +5513,7 @@
         <v>147</v>
       </c>
       <c r="E144" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -5491,7 +5530,7 @@
         <v>148</v>
       </c>
       <c r="E145" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -5508,7 +5547,7 @@
         <v>149</v>
       </c>
       <c r="E146" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -5525,7 +5564,7 @@
         <v>150</v>
       </c>
       <c r="E147" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -5542,7 +5581,7 @@
         <v>151</v>
       </c>
       <c r="E148" t="s">
-        <v>790</v>
+        <v>803</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -5559,7 +5598,7 @@
         <v>152</v>
       </c>
       <c r="E149" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -5576,7 +5615,7 @@
         <v>153</v>
       </c>
       <c r="E150" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -5593,7 +5632,7 @@
         <v>154</v>
       </c>
       <c r="E151" t="s">
-        <v>795</v>
+        <v>808</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -5610,7 +5649,7 @@
         <v>155</v>
       </c>
       <c r="E152" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -5627,7 +5666,7 @@
         <v>156</v>
       </c>
       <c r="E153" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -5644,7 +5683,7 @@
         <v>157</v>
       </c>
       <c r="E154" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -5661,7 +5700,7 @@
         <v>158</v>
       </c>
       <c r="E155" t="s">
-        <v>789</v>
+        <v>802</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -5678,7 +5717,7 @@
         <v>159</v>
       </c>
       <c r="E156" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -5695,7 +5734,7 @@
         <v>160</v>
       </c>
       <c r="E157" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -5712,7 +5751,7 @@
         <v>161</v>
       </c>
       <c r="E158" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -5729,7 +5768,7 @@
         <v>162</v>
       </c>
       <c r="E159" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -5746,7 +5785,7 @@
         <v>163</v>
       </c>
       <c r="E160" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -5763,7 +5802,7 @@
         <v>164</v>
       </c>
       <c r="E161" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -5780,7 +5819,7 @@
         <v>165</v>
       </c>
       <c r="E162" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -5797,7 +5836,7 @@
         <v>166</v>
       </c>
       <c r="E163" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -5814,7 +5853,7 @@
         <v>167</v>
       </c>
       <c r="E164" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -5831,7 +5870,7 @@
         <v>168</v>
       </c>
       <c r="E165" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -5848,7 +5887,7 @@
         <v>169</v>
       </c>
       <c r="E166" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -5865,7 +5904,7 @@
         <v>170</v>
       </c>
       <c r="E167" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -5882,7 +5921,7 @@
         <v>171</v>
       </c>
       <c r="E168" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -5899,7 +5938,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>799</v>
+        <v>812</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -5916,7 +5955,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -5933,7 +5972,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -5950,7 +5989,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -5967,7 +6006,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -5984,7 +6023,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6001,7 +6040,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6018,7 +6057,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6035,7 +6074,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>801</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6052,7 +6091,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6069,7 +6108,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6086,7 +6125,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6103,7 +6142,7 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>803</v>
+        <v>816</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6120,7 +6159,7 @@
         <v>185</v>
       </c>
       <c r="E182" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6137,7 +6176,7 @@
         <v>186</v>
       </c>
       <c r="E183" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6154,7 +6193,7 @@
         <v>187</v>
       </c>
       <c r="E184" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6171,7 +6210,7 @@
         <v>188</v>
       </c>
       <c r="E185" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6188,7 +6227,7 @@
         <v>189</v>
       </c>
       <c r="E186" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6205,7 +6244,7 @@
         <v>190</v>
       </c>
       <c r="E187" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6222,7 +6261,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="s">
-        <v>785</v>
+        <v>798</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6239,7 +6278,7 @@
         <v>192</v>
       </c>
       <c r="E189" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6256,7 +6295,7 @@
         <v>193</v>
       </c>
       <c r="E190" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6273,7 +6312,7 @@
         <v>194</v>
       </c>
       <c r="E191" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6290,7 +6329,7 @@
         <v>195</v>
       </c>
       <c r="E192" t="s">
-        <v>796</v>
+        <v>809</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -6307,7 +6346,7 @@
         <v>196</v>
       </c>
       <c r="E193" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -6324,7 +6363,7 @@
         <v>197</v>
       </c>
       <c r="E194" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -6341,7 +6380,7 @@
         <v>198</v>
       </c>
       <c r="E195" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -6358,7 +6397,7 @@
         <v>199</v>
       </c>
       <c r="E196" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -6375,7 +6414,7 @@
         <v>200</v>
       </c>
       <c r="E197" t="s">
-        <v>805</v>
+        <v>818</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -6392,7 +6431,7 @@
         <v>201</v>
       </c>
       <c r="E198" t="s">
-        <v>807</v>
+        <v>820</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -6409,7 +6448,7 @@
         <v>202</v>
       </c>
       <c r="E199" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -6426,7 +6465,7 @@
         <v>203</v>
       </c>
       <c r="E200" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -6443,7 +6482,7 @@
         <v>204</v>
       </c>
       <c r="E201" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -6460,7 +6499,7 @@
         <v>205</v>
       </c>
       <c r="E202" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -6477,7 +6516,7 @@
         <v>206</v>
       </c>
       <c r="E203" t="s">
-        <v>791</v>
+        <v>804</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -6494,7 +6533,7 @@
         <v>207</v>
       </c>
       <c r="E204" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -6511,7 +6550,7 @@
         <v>208</v>
       </c>
       <c r="E205" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -6528,7 +6567,7 @@
         <v>209</v>
       </c>
       <c r="E206" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -6545,7 +6584,7 @@
         <v>210</v>
       </c>
       <c r="E207" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -6562,7 +6601,7 @@
         <v>211</v>
       </c>
       <c r="E208" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -6579,7 +6618,7 @@
         <v>212</v>
       </c>
       <c r="E209" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -6596,7 +6635,7 @@
         <v>213</v>
       </c>
       <c r="E210" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -6613,7 +6652,7 @@
         <v>214</v>
       </c>
       <c r="E211" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -6630,7 +6669,7 @@
         <v>215</v>
       </c>
       <c r="E212" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -6647,7 +6686,7 @@
         <v>216</v>
       </c>
       <c r="E213" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -6664,7 +6703,7 @@
         <v>217</v>
       </c>
       <c r="E214" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -6681,7 +6720,7 @@
         <v>218</v>
       </c>
       <c r="E215" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -6698,7 +6737,7 @@
         <v>219</v>
       </c>
       <c r="E216" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -6715,7 +6754,7 @@
         <v>220</v>
       </c>
       <c r="E217" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -6732,7 +6771,7 @@
         <v>221</v>
       </c>
       <c r="E218" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -6749,7 +6788,7 @@
         <v>222</v>
       </c>
       <c r="E219" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -6766,7 +6805,7 @@
         <v>223</v>
       </c>
       <c r="E220" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -6783,7 +6822,7 @@
         <v>224</v>
       </c>
       <c r="E221" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -6800,7 +6839,7 @@
         <v>225</v>
       </c>
       <c r="E222" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -6817,7 +6856,7 @@
         <v>226</v>
       </c>
       <c r="E223" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -6834,7 +6873,7 @@
         <v>227</v>
       </c>
       <c r="E224" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -6851,7 +6890,7 @@
         <v>228</v>
       </c>
       <c r="E225" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -6868,7 +6907,7 @@
         <v>229</v>
       </c>
       <c r="E226" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -6885,7 +6924,7 @@
         <v>230</v>
       </c>
       <c r="E227" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -6902,7 +6941,7 @@
         <v>231</v>
       </c>
       <c r="E228" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -6919,7 +6958,7 @@
         <v>232</v>
       </c>
       <c r="E229" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -6936,7 +6975,7 @@
         <v>233</v>
       </c>
       <c r="E230" t="s">
-        <v>783</v>
+        <v>796</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -6953,7 +6992,7 @@
         <v>234</v>
       </c>
       <c r="E231" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -6970,7 +7009,7 @@
         <v>235</v>
       </c>
       <c r="E232" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -6987,7 +7026,7 @@
         <v>236</v>
       </c>
       <c r="E233" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7004,7 +7043,7 @@
         <v>237</v>
       </c>
       <c r="E234" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7021,7 +7060,7 @@
         <v>238</v>
       </c>
       <c r="E235" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7038,7 +7077,7 @@
         <v>239</v>
       </c>
       <c r="E236" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7055,7 +7094,7 @@
         <v>240</v>
       </c>
       <c r="E237" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7072,7 +7111,7 @@
         <v>241</v>
       </c>
       <c r="E238" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7089,7 +7128,7 @@
         <v>242</v>
       </c>
       <c r="E239" t="s">
-        <v>760</v>
+        <v>773</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7106,7 +7145,7 @@
         <v>243</v>
       </c>
       <c r="E240" t="s">
-        <v>759</v>
+        <v>772</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7123,7 +7162,7 @@
         <v>244</v>
       </c>
       <c r="E241" t="s">
-        <v>768</v>
+        <v>781</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7140,7 +7179,7 @@
         <v>245</v>
       </c>
       <c r="E242" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7157,7 +7196,7 @@
         <v>246</v>
       </c>
       <c r="E243" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7174,7 +7213,7 @@
         <v>247</v>
       </c>
       <c r="E244" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7191,7 +7230,7 @@
         <v>248</v>
       </c>
       <c r="E245" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7208,7 +7247,7 @@
         <v>249</v>
       </c>
       <c r="E246" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7225,7 +7264,7 @@
         <v>250</v>
       </c>
       <c r="E247" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7242,7 +7281,7 @@
         <v>251</v>
       </c>
       <c r="E248" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7259,7 +7298,7 @@
         <v>252</v>
       </c>
       <c r="E249" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7276,7 +7315,7 @@
         <v>253</v>
       </c>
       <c r="E250" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -7293,7 +7332,7 @@
         <v>254</v>
       </c>
       <c r="E251" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -7310,7 +7349,7 @@
         <v>255</v>
       </c>
       <c r="E252" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -7327,7 +7366,7 @@
         <v>256</v>
       </c>
       <c r="E253" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -7344,7 +7383,7 @@
         <v>257</v>
       </c>
       <c r="E254" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -7361,7 +7400,7 @@
         <v>258</v>
       </c>
       <c r="E255" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -7378,7 +7417,7 @@
         <v>259</v>
       </c>
       <c r="E256" t="s">
-        <v>779</v>
+        <v>792</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -7395,7 +7434,7 @@
         <v>260</v>
       </c>
       <c r="E257" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -7412,7 +7451,7 @@
         <v>261</v>
       </c>
       <c r="E258" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -7429,7 +7468,7 @@
         <v>262</v>
       </c>
       <c r="E259" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -7446,7 +7485,7 @@
         <v>263</v>
       </c>
       <c r="E260" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -7463,7 +7502,7 @@
         <v>264</v>
       </c>
       <c r="E261" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -7480,7 +7519,7 @@
         <v>265</v>
       </c>
       <c r="E262" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -7497,7 +7536,7 @@
         <v>266</v>
       </c>
       <c r="E263" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -7514,7 +7553,7 @@
         <v>267</v>
       </c>
       <c r="E264" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -7531,7 +7570,7 @@
         <v>268</v>
       </c>
       <c r="E265" t="s">
-        <v>778</v>
+        <v>791</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -7548,7 +7587,7 @@
         <v>269</v>
       </c>
       <c r="E266" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -7565,7 +7604,7 @@
         <v>270</v>
       </c>
       <c r="E267" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -7582,7 +7621,7 @@
         <v>271</v>
       </c>
       <c r="E268" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -7599,7 +7638,7 @@
         <v>272</v>
       </c>
       <c r="E269" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -7616,7 +7655,7 @@
         <v>273</v>
       </c>
       <c r="E270" t="s">
-        <v>765</v>
+        <v>778</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -7633,7 +7672,7 @@
         <v>274</v>
       </c>
       <c r="E271" t="s">
-        <v>772</v>
+        <v>785</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -7650,7 +7689,7 @@
         <v>275</v>
       </c>
       <c r="E272" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -7667,7 +7706,7 @@
         <v>276</v>
       </c>
       <c r="E273" t="s">
-        <v>774</v>
+        <v>787</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -7684,7 +7723,7 @@
         <v>277</v>
       </c>
       <c r="E274" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -7701,7 +7740,7 @@
         <v>278</v>
       </c>
       <c r="E275" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -7718,7 +7757,7 @@
         <v>279</v>
       </c>
       <c r="E276" t="s">
-        <v>794</v>
+        <v>807</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -7735,7 +7774,7 @@
         <v>280</v>
       </c>
       <c r="E277" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -7752,7 +7791,7 @@
         <v>281</v>
       </c>
       <c r="E278" t="s">
-        <v>800</v>
+        <v>813</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -7769,7 +7808,7 @@
         <v>282</v>
       </c>
       <c r="E279" t="s">
-        <v>780</v>
+        <v>793</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -7786,7 +7825,7 @@
         <v>283</v>
       </c>
       <c r="E280" t="s">
-        <v>798</v>
+        <v>811</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -7803,7 +7842,7 @@
         <v>284</v>
       </c>
       <c r="E281" t="s">
-        <v>786</v>
+        <v>799</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -7820,7 +7859,7 @@
         <v>285</v>
       </c>
       <c r="E282" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -7837,7 +7876,7 @@
         <v>286</v>
       </c>
       <c r="E283" t="s">
-        <v>787</v>
+        <v>800</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -7854,7 +7893,7 @@
         <v>287</v>
       </c>
       <c r="E284" t="s">
-        <v>782</v>
+        <v>795</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -7871,7 +7910,7 @@
         <v>288</v>
       </c>
       <c r="E285" t="s">
-        <v>784</v>
+        <v>797</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -7888,7 +7927,7 @@
         <v>289</v>
       </c>
       <c r="E286" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -7905,7 +7944,7 @@
         <v>290</v>
       </c>
       <c r="E287" t="s">
-        <v>755</v>
+        <v>768</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -7922,7 +7961,7 @@
         <v>291</v>
       </c>
       <c r="E288" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -7939,7 +7978,7 @@
         <v>292</v>
       </c>
       <c r="E289" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -7956,7 +7995,7 @@
         <v>293</v>
       </c>
       <c r="E290" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -7973,7 +8012,7 @@
         <v>294</v>
       </c>
       <c r="E291" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -7990,7 +8029,7 @@
         <v>295</v>
       </c>
       <c r="E292" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8007,7 +8046,7 @@
         <v>296</v>
       </c>
       <c r="E293" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8024,7 +8063,7 @@
         <v>297</v>
       </c>
       <c r="E294" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8041,7 +8080,7 @@
         <v>298</v>
       </c>
       <c r="E295" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8058,7 +8097,7 @@
         <v>299</v>
       </c>
       <c r="E296" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8075,7 +8114,7 @@
         <v>300</v>
       </c>
       <c r="E297" t="s">
-        <v>811</v>
+        <v>824</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8092,7 +8131,7 @@
         <v>301</v>
       </c>
       <c r="E298" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8109,7 +8148,7 @@
         <v>302</v>
       </c>
       <c r="E299" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8126,7 +8165,7 @@
         <v>303</v>
       </c>
       <c r="E300" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8143,7 +8182,7 @@
         <v>304</v>
       </c>
       <c r="E301" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8160,7 +8199,7 @@
         <v>305</v>
       </c>
       <c r="E302" t="s">
-        <v>769</v>
+        <v>782</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8177,7 +8216,7 @@
         <v>306</v>
       </c>
       <c r="E303" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8194,7 +8233,7 @@
         <v>307</v>
       </c>
       <c r="E304" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8211,7 +8250,7 @@
         <v>308</v>
       </c>
       <c r="E305" t="s">
-        <v>773</v>
+        <v>786</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8228,7 +8267,7 @@
         <v>309</v>
       </c>
       <c r="E306" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8245,7 +8284,7 @@
         <v>310</v>
       </c>
       <c r="E307" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8262,7 +8301,7 @@
         <v>311</v>
       </c>
       <c r="E308" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8279,7 +8318,7 @@
         <v>312</v>
       </c>
       <c r="E309" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -8296,7 +8335,7 @@
         <v>313</v>
       </c>
       <c r="E310" t="s">
-        <v>777</v>
+        <v>790</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -8313,7 +8352,7 @@
         <v>314</v>
       </c>
       <c r="E311" t="s">
-        <v>775</v>
+        <v>788</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -8330,7 +8369,7 @@
         <v>315</v>
       </c>
       <c r="E312" t="s">
-        <v>766</v>
+        <v>779</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -8347,7 +8386,7 @@
         <v>316</v>
       </c>
       <c r="E313" t="s">
-        <v>758</v>
+        <v>771</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -8364,7 +8403,7 @@
         <v>317</v>
       </c>
       <c r="E314" t="s">
-        <v>757</v>
+        <v>770</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -8381,7 +8420,7 @@
         <v>318</v>
       </c>
       <c r="E315" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -8398,7 +8437,7 @@
         <v>319</v>
       </c>
       <c r="E316" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -8415,7 +8454,7 @@
         <v>320</v>
       </c>
       <c r="E317" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -8432,7 +8471,7 @@
         <v>321</v>
       </c>
       <c r="E318" t="s">
-        <v>771</v>
+        <v>784</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -8449,7 +8488,7 @@
         <v>322</v>
       </c>
       <c r="E319" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -8466,7 +8505,7 @@
         <v>323</v>
       </c>
       <c r="E320" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8483,7 +8522,7 @@
         <v>324</v>
       </c>
       <c r="E321" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8500,7 +8539,7 @@
         <v>325</v>
       </c>
       <c r="E322" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8517,7 +8556,7 @@
         <v>326</v>
       </c>
       <c r="E323" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8534,7 +8573,7 @@
         <v>327</v>
       </c>
       <c r="E324" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -8551,7 +8590,7 @@
         <v>328</v>
       </c>
       <c r="E325" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8568,7 +8607,7 @@
         <v>329</v>
       </c>
       <c r="E326" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8585,7 +8624,7 @@
         <v>330</v>
       </c>
       <c r="E327" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8602,7 +8641,7 @@
         <v>331</v>
       </c>
       <c r="E328" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8619,7 +8658,7 @@
         <v>332</v>
       </c>
       <c r="E329" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -8636,7 +8675,7 @@
         <v>333</v>
       </c>
       <c r="E330" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -8653,7 +8692,7 @@
         <v>334</v>
       </c>
       <c r="E331" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -8670,7 +8709,7 @@
         <v>335</v>
       </c>
       <c r="E332" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -8687,7 +8726,7 @@
         <v>336</v>
       </c>
       <c r="E333" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -8704,7 +8743,7 @@
         <v>337</v>
       </c>
       <c r="E334" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -8721,7 +8760,7 @@
         <v>338</v>
       </c>
       <c r="E335" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -8738,7 +8777,7 @@
         <v>339</v>
       </c>
       <c r="E336" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -8755,7 +8794,7 @@
         <v>340</v>
       </c>
       <c r="E337" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -8772,7 +8811,7 @@
         <v>341</v>
       </c>
       <c r="E338" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -8789,7 +8828,7 @@
         <v>342</v>
       </c>
       <c r="E339" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -8806,7 +8845,7 @@
         <v>343</v>
       </c>
       <c r="E340" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -8823,7 +8862,7 @@
         <v>344</v>
       </c>
       <c r="E341" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -8840,7 +8879,7 @@
         <v>345</v>
       </c>
       <c r="E342" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -8857,7 +8896,7 @@
         <v>346</v>
       </c>
       <c r="E343" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -8874,7 +8913,7 @@
         <v>347</v>
       </c>
       <c r="E344" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -8891,7 +8930,7 @@
         <v>348</v>
       </c>
       <c r="E345" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -8908,7 +8947,7 @@
         <v>349</v>
       </c>
       <c r="E346" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -8925,7 +8964,7 @@
         <v>350</v>
       </c>
       <c r="E347" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -8942,7 +8981,7 @@
         <v>351</v>
       </c>
       <c r="E348" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -8959,7 +8998,7 @@
         <v>352</v>
       </c>
       <c r="E349" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -8976,7 +9015,7 @@
         <v>353</v>
       </c>
       <c r="E350" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -8993,7 +9032,7 @@
         <v>354</v>
       </c>
       <c r="E351" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9010,7 +9049,7 @@
         <v>355</v>
       </c>
       <c r="E352" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9027,7 +9066,7 @@
         <v>356</v>
       </c>
       <c r="E353" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9044,7 +9083,7 @@
         <v>357</v>
       </c>
       <c r="E354" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9061,7 +9100,7 @@
         <v>358</v>
       </c>
       <c r="E355" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9078,7 +9117,7 @@
         <v>359</v>
       </c>
       <c r="E356" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9095,7 +9134,7 @@
         <v>360</v>
       </c>
       <c r="E357" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9112,7 +9151,7 @@
         <v>361</v>
       </c>
       <c r="E358" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9129,7 +9168,7 @@
         <v>362</v>
       </c>
       <c r="E359" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9146,7 +9185,7 @@
         <v>363</v>
       </c>
       <c r="E360" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9163,7 +9202,7 @@
         <v>364</v>
       </c>
       <c r="E361" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9180,7 +9219,7 @@
         <v>365</v>
       </c>
       <c r="E362" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9197,7 +9236,7 @@
         <v>366</v>
       </c>
       <c r="E363" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9214,7 +9253,7 @@
         <v>367</v>
       </c>
       <c r="E364" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9231,7 +9270,7 @@
         <v>368</v>
       </c>
       <c r="E365" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9248,7 +9287,7 @@
         <v>369</v>
       </c>
       <c r="E366" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9265,7 +9304,7 @@
         <v>370</v>
       </c>
       <c r="E367" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9282,7 +9321,7 @@
         <v>371</v>
       </c>
       <c r="E368" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -9299,7 +9338,7 @@
         <v>372</v>
       </c>
       <c r="E369" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -9316,7 +9355,7 @@
         <v>373</v>
       </c>
       <c r="E370" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -9333,7 +9372,7 @@
         <v>374</v>
       </c>
       <c r="E371" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -9350,7 +9389,7 @@
         <v>375</v>
       </c>
       <c r="E372" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -9367,7 +9406,7 @@
         <v>376</v>
       </c>
       <c r="E373" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -9384,7 +9423,7 @@
         <v>377</v>
       </c>
       <c r="E374" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -9401,7 +9440,7 @@
         <v>378</v>
       </c>
       <c r="E375" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -9418,7 +9457,7 @@
         <v>379</v>
       </c>
       <c r="E376" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -9435,7 +9474,7 @@
         <v>380</v>
       </c>
       <c r="E377" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -9452,7 +9491,7 @@
         <v>381</v>
       </c>
       <c r="E378" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -9469,7 +9508,7 @@
         <v>382</v>
       </c>
       <c r="E379" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -9486,7 +9525,7 @@
         <v>383</v>
       </c>
       <c r="E380" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -9503,7 +9542,7 @@
         <v>384</v>
       </c>
       <c r="E381" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -9520,7 +9559,7 @@
         <v>385</v>
       </c>
       <c r="E382" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -9537,7 +9576,7 @@
         <v>386</v>
       </c>
       <c r="E383" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -9554,7 +9593,7 @@
         <v>387</v>
       </c>
       <c r="E384" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -9571,7 +9610,7 @@
         <v>388</v>
       </c>
       <c r="E385" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -9588,7 +9627,7 @@
         <v>389</v>
       </c>
       <c r="E386" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -9605,7 +9644,7 @@
         <v>390</v>
       </c>
       <c r="E387" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -9622,7 +9661,7 @@
         <v>391</v>
       </c>
       <c r="E388" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -9639,7 +9678,7 @@
         <v>392</v>
       </c>
       <c r="E389" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -9656,7 +9695,7 @@
         <v>393</v>
       </c>
       <c r="E390" t="s">
-        <v>767</v>
+        <v>780</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -9673,7 +9712,7 @@
         <v>394</v>
       </c>
       <c r="E391" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -9690,7 +9729,7 @@
         <v>395</v>
       </c>
       <c r="E392" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="393" spans="1:5">
@@ -9707,7 +9746,7 @@
         <v>396</v>
       </c>
       <c r="E393" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="394" spans="1:5">
@@ -9724,7 +9763,7 @@
         <v>397</v>
       </c>
       <c r="E394" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="395" spans="1:5">
@@ -9741,7 +9780,7 @@
         <v>398</v>
       </c>
       <c r="E395" t="s">
-        <v>808</v>
+        <v>821</v>
       </c>
     </row>
     <row r="396" spans="1:5">
@@ -9758,7 +9797,7 @@
         <v>399</v>
       </c>
       <c r="E396" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="397" spans="1:5">
@@ -9775,7 +9814,7 @@
         <v>400</v>
       </c>
       <c r="E397" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="398" spans="1:5">
@@ -9792,7 +9831,7 @@
         <v>401</v>
       </c>
       <c r="E398" t="s">
-        <v>763</v>
+        <v>776</v>
       </c>
     </row>
     <row r="399" spans="1:5">
@@ -9809,7 +9848,7 @@
         <v>402</v>
       </c>
       <c r="E399" t="s">
-        <v>770</v>
+        <v>783</v>
       </c>
     </row>
     <row r="400" spans="1:5">
@@ -9826,7 +9865,7 @@
         <v>403</v>
       </c>
       <c r="E400" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -9843,7 +9882,7 @@
         <v>404</v>
       </c>
       <c r="E401" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="402" spans="1:5">
@@ -9860,7 +9899,7 @@
         <v>405</v>
       </c>
       <c r="E402" t="s">
-        <v>809</v>
+        <v>822</v>
       </c>
     </row>
     <row r="403" spans="1:5">
@@ -9877,7 +9916,7 @@
         <v>406</v>
       </c>
       <c r="E403" t="s">
-        <v>764</v>
+        <v>777</v>
       </c>
     </row>
     <row r="404" spans="1:5">
@@ -9894,7 +9933,7 @@
         <v>407</v>
       </c>
       <c r="E404" t="s">
-        <v>761</v>
+        <v>774</v>
       </c>
     </row>
     <row r="405" spans="1:5">
@@ -9911,7 +9950,7 @@
         <v>408</v>
       </c>
       <c r="E405" t="s">
-        <v>788</v>
+        <v>801</v>
       </c>
     </row>
     <row r="406" spans="1:5">
@@ -9928,7 +9967,7 @@
         <v>409</v>
       </c>
       <c r="E406" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="407" spans="1:5">
@@ -9945,7 +9984,7 @@
         <v>410</v>
       </c>
       <c r="E407" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="408" spans="1:5">
@@ -9962,7 +10001,7 @@
         <v>411</v>
       </c>
       <c r="E408" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="409" spans="1:5">
@@ -9979,7 +10018,7 @@
         <v>412</v>
       </c>
       <c r="E409" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
     </row>
     <row r="410" spans="1:5">
@@ -9996,7 +10035,7 @@
         <v>413</v>
       </c>
       <c r="E410" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="411" spans="1:5">
@@ -10013,7 +10052,7 @@
         <v>414</v>
       </c>
       <c r="E411" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="412" spans="1:5">
@@ -10030,7 +10069,7 @@
         <v>415</v>
       </c>
       <c r="E412" t="s">
-        <v>826</v>
+        <v>839</v>
       </c>
     </row>
     <row r="413" spans="1:5">
@@ -10047,7 +10086,7 @@
         <v>416</v>
       </c>
       <c r="E413" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="414" spans="1:5">
@@ -10064,7 +10103,7 @@
         <v>417</v>
       </c>
       <c r="E414" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="415" spans="1:5">
@@ -10081,7 +10120,7 @@
         <v>418</v>
       </c>
       <c r="E415" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="416" spans="1:5">
@@ -10098,7 +10137,7 @@
         <v>419</v>
       </c>
       <c r="E416" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="417" spans="1:5">
@@ -10115,7 +10154,7 @@
         <v>420</v>
       </c>
       <c r="E417" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="418" spans="1:5">
@@ -10132,7 +10171,7 @@
         <v>421</v>
       </c>
       <c r="E418" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="419" spans="1:5">
@@ -10149,7 +10188,7 @@
         <v>422</v>
       </c>
       <c r="E419" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="420" spans="1:5">
@@ -10166,7 +10205,7 @@
         <v>423</v>
       </c>
       <c r="E420" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="421" spans="1:5">
@@ -10183,7 +10222,7 @@
         <v>424</v>
       </c>
       <c r="E421" t="s">
-        <v>810</v>
+        <v>823</v>
       </c>
     </row>
     <row r="422" spans="1:5">
@@ -10200,7 +10239,7 @@
         <v>425</v>
       </c>
       <c r="E422" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="423" spans="1:5">
@@ -10217,7 +10256,7 @@
         <v>426</v>
       </c>
       <c r="E423" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="424" spans="1:5">
@@ -10234,7 +10273,7 @@
         <v>427</v>
       </c>
       <c r="E424" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="425" spans="1:5">
@@ -10251,7 +10290,7 @@
         <v>428</v>
       </c>
       <c r="E425" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="426" spans="1:5">
@@ -10268,7 +10307,7 @@
         <v>429</v>
       </c>
       <c r="E426" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="427" spans="1:5">
@@ -10285,7 +10324,7 @@
         <v>430</v>
       </c>
       <c r="E427" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="428" spans="1:5">
@@ -10302,7 +10341,7 @@
         <v>431</v>
       </c>
       <c r="E428" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="429" spans="1:5">
@@ -10319,7 +10358,7 @@
         <v>432</v>
       </c>
       <c r="E429" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="430" spans="1:5">
@@ -10336,7 +10375,7 @@
         <v>433</v>
       </c>
       <c r="E430" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="431" spans="1:5">
@@ -10353,7 +10392,7 @@
         <v>434</v>
       </c>
       <c r="E431" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="432" spans="1:5">
@@ -10370,7 +10409,7 @@
         <v>435</v>
       </c>
       <c r="E432" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="433" spans="1:5">
@@ -10387,7 +10426,7 @@
         <v>436</v>
       </c>
       <c r="E433" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="434" spans="1:5">
@@ -10404,7 +10443,7 @@
         <v>437</v>
       </c>
       <c r="E434" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="435" spans="1:5">
@@ -10421,7 +10460,7 @@
         <v>438</v>
       </c>
       <c r="E435" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="436" spans="1:5">
@@ -10438,7 +10477,7 @@
         <v>439</v>
       </c>
       <c r="E436" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="437" spans="1:5">
@@ -10455,7 +10494,7 @@
         <v>440</v>
       </c>
       <c r="E437" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="438" spans="1:5">
@@ -10472,7 +10511,7 @@
         <v>441</v>
       </c>
       <c r="E438" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="439" spans="1:5">
@@ -10489,7 +10528,7 @@
         <v>442</v>
       </c>
       <c r="E439" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="440" spans="1:5">
@@ -10506,7 +10545,7 @@
         <v>443</v>
       </c>
       <c r="E440" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="441" spans="1:5">
@@ -10523,7 +10562,7 @@
         <v>444</v>
       </c>
       <c r="E441" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="442" spans="1:5">
@@ -10540,7 +10579,7 @@
         <v>445</v>
       </c>
       <c r="E442" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="443" spans="1:5">
@@ -10557,7 +10596,7 @@
         <v>446</v>
       </c>
       <c r="E443" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="444" spans="1:5">
@@ -10574,7 +10613,7 @@
         <v>447</v>
       </c>
       <c r="E444" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="445" spans="1:5">
@@ -10591,7 +10630,7 @@
         <v>448</v>
       </c>
       <c r="E445" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="446" spans="1:5">
@@ -10608,7 +10647,7 @@
         <v>449</v>
       </c>
       <c r="E446" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="447" spans="1:5">
@@ -10625,7 +10664,7 @@
         <v>450</v>
       </c>
       <c r="E447" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="448" spans="1:5">
@@ -10642,7 +10681,7 @@
         <v>451</v>
       </c>
       <c r="E448" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="449" spans="1:5">
@@ -10659,7 +10698,7 @@
         <v>452</v>
       </c>
       <c r="E449" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="450" spans="1:5">
@@ -10676,7 +10715,7 @@
         <v>453</v>
       </c>
       <c r="E450" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="451" spans="1:5">
@@ -10693,7 +10732,7 @@
         <v>454</v>
       </c>
       <c r="E451" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="452" spans="1:5">
@@ -10710,7 +10749,7 @@
         <v>455</v>
       </c>
       <c r="E452" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="453" spans="1:5">
@@ -10727,7 +10766,7 @@
         <v>456</v>
       </c>
       <c r="E453" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="454" spans="1:5">
@@ -10744,7 +10783,7 @@
         <v>457</v>
       </c>
       <c r="E454" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="455" spans="1:5">
@@ -10761,7 +10800,7 @@
         <v>458</v>
       </c>
       <c r="E455" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="456" spans="1:5">
@@ -10778,7 +10817,7 @@
         <v>459</v>
       </c>
       <c r="E456" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="457" spans="1:5">
@@ -10795,7 +10834,7 @@
         <v>460</v>
       </c>
       <c r="E457" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="458" spans="1:5">
@@ -10812,7 +10851,7 @@
         <v>461</v>
       </c>
       <c r="E458" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="459" spans="1:5">
@@ -10829,7 +10868,7 @@
         <v>462</v>
       </c>
       <c r="E459" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="460" spans="1:5">
@@ -10846,7 +10885,7 @@
         <v>463</v>
       </c>
       <c r="E460" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="461" spans="1:5">
@@ -10863,7 +10902,7 @@
         <v>464</v>
       </c>
       <c r="E461" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="462" spans="1:5">
@@ -10880,7 +10919,7 @@
         <v>465</v>
       </c>
       <c r="E462" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="463" spans="1:5">
@@ -10897,7 +10936,7 @@
         <v>466</v>
       </c>
       <c r="E463" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="464" spans="1:5">
@@ -10914,7 +10953,7 @@
         <v>467</v>
       </c>
       <c r="E464" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="465" spans="1:5">
@@ -10931,7 +10970,7 @@
         <v>468</v>
       </c>
       <c r="E465" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="466" spans="1:5">
@@ -10948,7 +10987,7 @@
         <v>469</v>
       </c>
       <c r="E466" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="467" spans="1:5">
@@ -10965,7 +11004,7 @@
         <v>470</v>
       </c>
       <c r="E467" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="468" spans="1:5">
@@ -10982,7 +11021,7 @@
         <v>471</v>
       </c>
       <c r="E468" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="469" spans="1:5">
@@ -10999,7 +11038,7 @@
         <v>472</v>
       </c>
       <c r="E469" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="470" spans="1:5">
@@ -11016,7 +11055,7 @@
         <v>473</v>
       </c>
       <c r="E470" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="471" spans="1:5">
@@ -11033,7 +11072,7 @@
         <v>474</v>
       </c>
       <c r="E471" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="472" spans="1:5">
@@ -11050,7 +11089,7 @@
         <v>475</v>
       </c>
       <c r="E472" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="473" spans="1:5">
@@ -11067,7 +11106,7 @@
         <v>476</v>
       </c>
       <c r="E473" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="474" spans="1:5">
@@ -11084,7 +11123,7 @@
         <v>477</v>
       </c>
       <c r="E474" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="475" spans="1:5">
@@ -11101,7 +11140,7 @@
         <v>478</v>
       </c>
       <c r="E475" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="476" spans="1:5">
@@ -11118,7 +11157,7 @@
         <v>479</v>
       </c>
       <c r="E476" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="477" spans="1:5">
@@ -11135,7 +11174,7 @@
         <v>480</v>
       </c>
       <c r="E477" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="478" spans="1:5">
@@ -11152,7 +11191,7 @@
         <v>481</v>
       </c>
       <c r="E478" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="479" spans="1:5">
@@ -11169,7 +11208,7 @@
         <v>482</v>
       </c>
       <c r="E479" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="480" spans="1:5">
@@ -11186,7 +11225,7 @@
         <v>483</v>
       </c>
       <c r="E480" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="481" spans="1:5">
@@ -11203,7 +11242,7 @@
         <v>484</v>
       </c>
       <c r="E481" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="482" spans="1:5">
@@ -11220,7 +11259,7 @@
         <v>485</v>
       </c>
       <c r="E482" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="483" spans="1:5">
@@ -11237,7 +11276,7 @@
         <v>486</v>
       </c>
       <c r="E483" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="484" spans="1:5">
@@ -11254,7 +11293,7 @@
         <v>487</v>
       </c>
       <c r="E484" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="485" spans="1:5">
@@ -11271,7 +11310,7 @@
         <v>488</v>
       </c>
       <c r="E485" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="486" spans="1:5">
@@ -11288,7 +11327,7 @@
         <v>489</v>
       </c>
       <c r="E486" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="487" spans="1:5">
@@ -11305,7 +11344,7 @@
         <v>490</v>
       </c>
       <c r="E487" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="488" spans="1:5">
@@ -11322,7 +11361,7 @@
         <v>491</v>
       </c>
       <c r="E488" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="489" spans="1:5">
@@ -11339,7 +11378,7 @@
         <v>492</v>
       </c>
       <c r="E489" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="490" spans="1:5">
@@ -11356,7 +11395,7 @@
         <v>493</v>
       </c>
       <c r="E490" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="491" spans="1:5">
@@ -11373,7 +11412,7 @@
         <v>494</v>
       </c>
       <c r="E491" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="492" spans="1:5">
@@ -11390,7 +11429,7 @@
         <v>495</v>
       </c>
       <c r="E492" t="s">
-        <v>850</v>
+        <v>863</v>
       </c>
     </row>
     <row r="493" spans="1:5">
@@ -11407,7 +11446,7 @@
         <v>496</v>
       </c>
       <c r="E493" t="s">
-        <v>851</v>
+        <v>864</v>
       </c>
     </row>
     <row r="494" spans="1:5">
@@ -11424,7 +11463,7 @@
         <v>497</v>
       </c>
       <c r="E494" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="495" spans="1:5">
@@ -11441,7 +11480,7 @@
         <v>498</v>
       </c>
       <c r="E495" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="496" spans="1:5">
@@ -11458,7 +11497,7 @@
         <v>499</v>
       </c>
       <c r="E496" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="497" spans="1:5">
@@ -11475,7 +11514,7 @@
         <v>500</v>
       </c>
       <c r="E497" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="498" spans="1:5">
@@ -11492,7 +11531,7 @@
         <v>501</v>
       </c>
       <c r="E498" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="499" spans="1:5">
@@ -11509,7 +11548,7 @@
         <v>502</v>
       </c>
       <c r="E499" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="500" spans="1:5">
@@ -11526,7 +11565,7 @@
         <v>503</v>
       </c>
       <c r="E500" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="501" spans="1:5">
@@ -11543,7 +11582,7 @@
         <v>504</v>
       </c>
       <c r="E501" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="502" spans="1:5">
@@ -11560,7 +11599,7 @@
         <v>505</v>
       </c>
       <c r="E502" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="503" spans="1:5">
@@ -11577,7 +11616,7 @@
         <v>506</v>
       </c>
       <c r="E503" t="s">
-        <v>846</v>
+        <v>859</v>
       </c>
     </row>
     <row r="504" spans="1:5">
@@ -11594,7 +11633,7 @@
         <v>507</v>
       </c>
       <c r="E504" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="505" spans="1:5">
@@ -11611,7 +11650,7 @@
         <v>508</v>
       </c>
       <c r="E505" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="506" spans="1:5">
@@ -11628,7 +11667,7 @@
         <v>509</v>
       </c>
       <c r="E506" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="507" spans="1:5">
@@ -11645,7 +11684,7 @@
         <v>510</v>
       </c>
       <c r="E507" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="508" spans="1:5">
@@ -11662,7 +11701,7 @@
         <v>511</v>
       </c>
       <c r="E508" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="509" spans="1:5">
@@ -11679,7 +11718,7 @@
         <v>512</v>
       </c>
       <c r="E509" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="510" spans="1:5">
@@ -11696,7 +11735,7 @@
         <v>513</v>
       </c>
       <c r="E510" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="511" spans="1:5">
@@ -11713,7 +11752,7 @@
         <v>514</v>
       </c>
       <c r="E511" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="512" spans="1:5">
@@ -11730,7 +11769,7 @@
         <v>515</v>
       </c>
       <c r="E512" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="513" spans="1:5">
@@ -11747,7 +11786,7 @@
         <v>516</v>
       </c>
       <c r="E513" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="514" spans="1:5">
@@ -11764,7 +11803,7 @@
         <v>517</v>
       </c>
       <c r="E514" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="515" spans="1:5">
@@ -11781,7 +11820,7 @@
         <v>518</v>
       </c>
       <c r="E515" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="516" spans="1:5">
@@ -11798,7 +11837,7 @@
         <v>519</v>
       </c>
       <c r="E516" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="517" spans="1:5">
@@ -11815,7 +11854,7 @@
         <v>520</v>
       </c>
       <c r="E517" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="518" spans="1:5">
@@ -11832,7 +11871,7 @@
         <v>521</v>
       </c>
       <c r="E518" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
     </row>
     <row r="519" spans="1:5">
@@ -11849,7 +11888,7 @@
         <v>522</v>
       </c>
       <c r="E519" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="520" spans="1:5">
@@ -11866,7 +11905,7 @@
         <v>523</v>
       </c>
       <c r="E520" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="521" spans="1:5">
@@ -11883,7 +11922,7 @@
         <v>524</v>
       </c>
       <c r="E521" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="522" spans="1:5">
@@ -11900,7 +11939,7 @@
         <v>525</v>
       </c>
       <c r="E522" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="523" spans="1:5">
@@ -11917,7 +11956,7 @@
         <v>526</v>
       </c>
       <c r="E523" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="524" spans="1:5">
@@ -11934,7 +11973,7 @@
         <v>527</v>
       </c>
       <c r="E524" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="525" spans="1:5">
@@ -11951,7 +11990,7 @@
         <v>528</v>
       </c>
       <c r="E525" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="526" spans="1:5">
@@ -11968,7 +12007,7 @@
         <v>529</v>
       </c>
       <c r="E526" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="527" spans="1:5">
@@ -11985,7 +12024,7 @@
         <v>530</v>
       </c>
       <c r="E527" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="528" spans="1:5">
@@ -12002,7 +12041,7 @@
         <v>531</v>
       </c>
       <c r="E528" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="529" spans="1:5">
@@ -12019,7 +12058,7 @@
         <v>532</v>
       </c>
       <c r="E529" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="530" spans="1:5">
@@ -12036,7 +12075,7 @@
         <v>533</v>
       </c>
       <c r="E530" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
     </row>
     <row r="531" spans="1:5">
@@ -12053,7 +12092,7 @@
         <v>534</v>
       </c>
       <c r="E531" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="532" spans="1:5">
@@ -12070,7 +12109,7 @@
         <v>535</v>
       </c>
       <c r="E532" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="533" spans="1:5">
@@ -12087,7 +12126,7 @@
         <v>536</v>
       </c>
       <c r="E533" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="534" spans="1:5">
@@ -12104,7 +12143,7 @@
         <v>537</v>
       </c>
       <c r="E534" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="535" spans="1:5">
@@ -12121,7 +12160,7 @@
         <v>538</v>
       </c>
       <c r="E535" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="536" spans="1:5">
@@ -12138,7 +12177,7 @@
         <v>539</v>
       </c>
       <c r="E536" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="537" spans="1:5">
@@ -12155,7 +12194,7 @@
         <v>540</v>
       </c>
       <c r="E537" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="538" spans="1:5">
@@ -12172,7 +12211,7 @@
         <v>541</v>
       </c>
       <c r="E538" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="539" spans="1:5">
@@ -12189,7 +12228,7 @@
         <v>542</v>
       </c>
       <c r="E539" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="540" spans="1:5">
@@ -12206,7 +12245,7 @@
         <v>543</v>
       </c>
       <c r="E540" t="s">
-        <v>856</v>
+        <v>869</v>
       </c>
     </row>
     <row r="541" spans="1:5">
@@ -12223,7 +12262,7 @@
         <v>544</v>
       </c>
       <c r="E541" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="542" spans="1:5">
@@ -12240,7 +12279,7 @@
         <v>545</v>
       </c>
       <c r="E542" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="543" spans="1:5">
@@ -12257,7 +12296,7 @@
         <v>546</v>
       </c>
       <c r="E543" t="s">
-        <v>855</v>
+        <v>868</v>
       </c>
     </row>
     <row r="544" spans="1:5">
@@ -12274,7 +12313,7 @@
         <v>547</v>
       </c>
       <c r="E544" t="s">
-        <v>847</v>
+        <v>860</v>
       </c>
     </row>
     <row r="545" spans="1:5">
@@ -12291,7 +12330,7 @@
         <v>548</v>
       </c>
       <c r="E545" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="546" spans="1:5">
@@ -12308,7 +12347,7 @@
         <v>549</v>
       </c>
       <c r="E546" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="547" spans="1:5">
@@ -12325,7 +12364,7 @@
         <v>550</v>
       </c>
       <c r="E547" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="548" spans="1:5">
@@ -12342,7 +12381,7 @@
         <v>551</v>
       </c>
       <c r="E548" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="549" spans="1:5">
@@ -12359,7 +12398,7 @@
         <v>552</v>
       </c>
       <c r="E549" t="s">
-        <v>845</v>
+        <v>858</v>
       </c>
     </row>
     <row r="550" spans="1:5">
@@ -12376,7 +12415,7 @@
         <v>553</v>
       </c>
       <c r="E550" t="s">
-        <v>849</v>
+        <v>862</v>
       </c>
     </row>
     <row r="551" spans="1:5">
@@ -12393,7 +12432,7 @@
         <v>554</v>
       </c>
       <c r="E551" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="552" spans="1:5">
@@ -12410,7 +12449,7 @@
         <v>555</v>
       </c>
       <c r="E552" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="553" spans="1:5">
@@ -12427,7 +12466,7 @@
         <v>556</v>
       </c>
       <c r="E553" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -12444,7 +12483,7 @@
         <v>557</v>
       </c>
       <c r="E554" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="555" spans="1:5">
@@ -12461,7 +12500,7 @@
         <v>558</v>
       </c>
       <c r="E555" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="556" spans="1:5">
@@ -12478,7 +12517,7 @@
         <v>559</v>
       </c>
       <c r="E556" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="557" spans="1:5">
@@ -12495,7 +12534,7 @@
         <v>560</v>
       </c>
       <c r="E557" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="558" spans="1:5">
@@ -12512,7 +12551,7 @@
         <v>561</v>
       </c>
       <c r="E558" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="559" spans="1:5">
@@ -12529,7 +12568,7 @@
         <v>562</v>
       </c>
       <c r="E559" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="560" spans="1:5">
@@ -12546,7 +12585,7 @@
         <v>563</v>
       </c>
       <c r="E560" t="s">
-        <v>868</v>
+        <v>881</v>
       </c>
     </row>
     <row r="561" spans="1:5">
@@ -12563,7 +12602,7 @@
         <v>564</v>
       </c>
       <c r="E561" t="s">
-        <v>867</v>
+        <v>880</v>
       </c>
     </row>
     <row r="562" spans="1:5">
@@ -12580,7 +12619,7 @@
         <v>565</v>
       </c>
       <c r="E562" t="s">
-        <v>866</v>
+        <v>879</v>
       </c>
     </row>
     <row r="563" spans="1:5">
@@ -12597,7 +12636,7 @@
         <v>566</v>
       </c>
       <c r="E563" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="564" spans="1:5">
@@ -12614,7 +12653,7 @@
         <v>567</v>
       </c>
       <c r="E564" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="565" spans="1:5">
@@ -12631,7 +12670,7 @@
         <v>568</v>
       </c>
       <c r="E565" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="566" spans="1:5">
@@ -12648,7 +12687,7 @@
         <v>569</v>
       </c>
       <c r="E566" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="567" spans="1:5">
@@ -12665,7 +12704,7 @@
         <v>570</v>
       </c>
       <c r="E567" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="568" spans="1:5">
@@ -12682,7 +12721,7 @@
         <v>571</v>
       </c>
       <c r="E568" t="s">
-        <v>848</v>
+        <v>861</v>
       </c>
     </row>
     <row r="569" spans="1:5">
@@ -12699,7 +12738,7 @@
         <v>572</v>
       </c>
       <c r="E569" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="570" spans="1:5">
@@ -12716,7 +12755,7 @@
         <v>573</v>
       </c>
       <c r="E570" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="571" spans="1:5">
@@ -12733,7 +12772,7 @@
         <v>574</v>
       </c>
       <c r="E571" t="s">
-        <v>869</v>
+        <v>882</v>
       </c>
     </row>
     <row r="572" spans="1:5">
@@ -12750,7 +12789,7 @@
         <v>575</v>
       </c>
       <c r="E572" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="573" spans="1:5">
@@ -12767,7 +12806,7 @@
         <v>576</v>
       </c>
       <c r="E573" t="s">
-        <v>872</v>
+        <v>885</v>
       </c>
     </row>
     <row r="574" spans="1:5">
@@ -12784,7 +12823,7 @@
         <v>577</v>
       </c>
       <c r="E574" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="575" spans="1:5">
@@ -12801,7 +12840,7 @@
         <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="576" spans="1:5">
@@ -12818,7 +12857,7 @@
         <v>579</v>
       </c>
       <c r="E576" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="577" spans="1:5">
@@ -12835,7 +12874,7 @@
         <v>580</v>
       </c>
       <c r="E577" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="578" spans="1:5">
@@ -12852,7 +12891,7 @@
         <v>581</v>
       </c>
       <c r="E578" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="579" spans="1:5">
@@ -12869,7 +12908,7 @@
         <v>582</v>
       </c>
       <c r="E579" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="580" spans="1:5">
@@ -12886,7 +12925,7 @@
         <v>583</v>
       </c>
       <c r="E580" t="s">
-        <v>870</v>
+        <v>883</v>
       </c>
     </row>
     <row r="581" spans="1:5">
@@ -12903,7 +12942,7 @@
         <v>584</v>
       </c>
       <c r="E581" t="s">
-        <v>860</v>
+        <v>873</v>
       </c>
     </row>
     <row r="582" spans="1:5">
@@ -12920,7 +12959,7 @@
         <v>585</v>
       </c>
       <c r="E582" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="583" spans="1:5">
@@ -12937,7 +12976,7 @@
         <v>586</v>
       </c>
       <c r="E583" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="584" spans="1:5">
@@ -12954,7 +12993,7 @@
         <v>587</v>
       </c>
       <c r="E584" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="585" spans="1:5">
@@ -12971,7 +13010,7 @@
         <v>588</v>
       </c>
       <c r="E585" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="586" spans="1:5">
@@ -12988,7 +13027,7 @@
         <v>589</v>
       </c>
       <c r="E586" t="s">
-        <v>858</v>
+        <v>871</v>
       </c>
     </row>
     <row r="587" spans="1:5">
@@ -13005,7 +13044,7 @@
         <v>590</v>
       </c>
       <c r="E587" t="s">
-        <v>874</v>
+        <v>887</v>
       </c>
     </row>
     <row r="588" spans="1:5">
@@ -13022,7 +13061,7 @@
         <v>591</v>
       </c>
       <c r="E588" t="s">
-        <v>875</v>
+        <v>888</v>
       </c>
     </row>
     <row r="589" spans="1:5">
@@ -13039,7 +13078,7 @@
         <v>592</v>
       </c>
       <c r="E589" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="590" spans="1:5">
@@ -13056,7 +13095,7 @@
         <v>593</v>
       </c>
       <c r="E590" t="s">
-        <v>864</v>
+        <v>877</v>
       </c>
     </row>
     <row r="591" spans="1:5">
@@ -13073,7 +13112,7 @@
         <v>594</v>
       </c>
       <c r="E591" t="s">
-        <v>871</v>
+        <v>884</v>
       </c>
     </row>
     <row r="592" spans="1:5">
@@ -13090,7 +13129,7 @@
         <v>595</v>
       </c>
       <c r="E592" t="s">
-        <v>873</v>
+        <v>886</v>
       </c>
     </row>
     <row r="593" spans="1:5">
@@ -13107,7 +13146,7 @@
         <v>596</v>
       </c>
       <c r="E593" t="s">
-        <v>865</v>
+        <v>878</v>
       </c>
     </row>
     <row r="594" spans="1:5">
@@ -13124,7 +13163,7 @@
         <v>597</v>
       </c>
       <c r="E594" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="595" spans="1:5">
@@ -13141,7 +13180,7 @@
         <v>598</v>
       </c>
       <c r="E595" t="s">
-        <v>853</v>
+        <v>866</v>
       </c>
     </row>
     <row r="596" spans="1:5">
@@ -13158,7 +13197,7 @@
         <v>599</v>
       </c>
       <c r="E596" t="s">
-        <v>876</v>
+        <v>889</v>
       </c>
     </row>
     <row r="597" spans="1:5">
@@ -13175,7 +13214,7 @@
         <v>600</v>
       </c>
       <c r="E597" t="s">
-        <v>859</v>
+        <v>872</v>
       </c>
     </row>
     <row r="598" spans="1:5">
@@ -13192,7 +13231,7 @@
         <v>601</v>
       </c>
       <c r="E598" t="s">
-        <v>852</v>
+        <v>865</v>
       </c>
     </row>
     <row r="599" spans="1:5">
@@ -13209,7 +13248,7 @@
         <v>602</v>
       </c>
       <c r="E599" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="600" spans="1:5">
@@ -13226,7 +13265,7 @@
         <v>603</v>
       </c>
       <c r="E600" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="601" spans="1:5">
@@ -13243,7 +13282,7 @@
         <v>604</v>
       </c>
       <c r="E601" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="602" spans="1:5">
@@ -13260,7 +13299,7 @@
         <v>605</v>
       </c>
       <c r="E602" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="603" spans="1:5">
@@ -13277,7 +13316,7 @@
         <v>606</v>
       </c>
       <c r="E603" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="604" spans="1:5">
@@ -13294,7 +13333,7 @@
         <v>607</v>
       </c>
       <c r="E604" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="605" spans="1:5">
@@ -13311,7 +13350,7 @@
         <v>608</v>
       </c>
       <c r="E605" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="606" spans="1:5">
@@ -13328,7 +13367,7 @@
         <v>609</v>
       </c>
       <c r="E606" t="s">
-        <v>830</v>
+        <v>843</v>
       </c>
     </row>
     <row r="607" spans="1:5">
@@ -13345,7 +13384,7 @@
         <v>610</v>
       </c>
       <c r="E607" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="608" spans="1:5">
@@ -13362,7 +13401,7 @@
         <v>611</v>
       </c>
       <c r="E608" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
     </row>
     <row r="609" spans="1:5">
@@ -13379,7 +13418,7 @@
         <v>612</v>
       </c>
       <c r="E609" t="s">
-        <v>820</v>
+        <v>833</v>
       </c>
     </row>
     <row r="610" spans="1:5">
@@ -13396,7 +13435,7 @@
         <v>613</v>
       </c>
       <c r="E610" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="611" spans="1:5">
@@ -13413,7 +13452,7 @@
         <v>614</v>
       </c>
       <c r="E611" t="s">
-        <v>854</v>
+        <v>867</v>
       </c>
     </row>
     <row r="612" spans="1:5">
@@ -13430,7 +13469,7 @@
         <v>615</v>
       </c>
       <c r="E612" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="613" spans="1:5">
@@ -13447,7 +13486,7 @@
         <v>616</v>
       </c>
       <c r="E613" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="614" spans="1:5">
@@ -13464,7 +13503,7 @@
         <v>617</v>
       </c>
       <c r="E614" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="615" spans="1:5">
@@ -13481,7 +13520,7 @@
         <v>618</v>
       </c>
       <c r="E615" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="616" spans="1:5">
@@ -13498,7 +13537,7 @@
         <v>619</v>
       </c>
       <c r="E616" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="617" spans="1:5">
@@ -13515,7 +13554,7 @@
         <v>620</v>
       </c>
       <c r="E617" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="618" spans="1:5">
@@ -13532,7 +13571,7 @@
         <v>621</v>
       </c>
       <c r="E618" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="619" spans="1:5">
@@ -13549,7 +13588,7 @@
         <v>622</v>
       </c>
       <c r="E619" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="620" spans="1:5">
@@ -13566,7 +13605,7 @@
         <v>623</v>
       </c>
       <c r="E620" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="621" spans="1:5">
@@ -13583,7 +13622,7 @@
         <v>624</v>
       </c>
       <c r="E621" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="622" spans="1:5">
@@ -13600,7 +13639,7 @@
         <v>625</v>
       </c>
       <c r="E622" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="623" spans="1:5">
@@ -13617,7 +13656,7 @@
         <v>626</v>
       </c>
       <c r="E623" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="624" spans="1:5">
@@ -13634,7 +13673,7 @@
         <v>627</v>
       </c>
       <c r="E624" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
     </row>
     <row r="625" spans="1:5">
@@ -13651,7 +13690,7 @@
         <v>628</v>
       </c>
       <c r="E625" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="626" spans="1:5">
@@ -13668,7 +13707,7 @@
         <v>629</v>
       </c>
       <c r="E626" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="627" spans="1:5">
@@ -13685,7 +13724,7 @@
         <v>630</v>
       </c>
       <c r="E627" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="628" spans="1:5">
@@ -13702,7 +13741,7 @@
         <v>631</v>
       </c>
       <c r="E628" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="629" spans="1:5">
@@ -13719,7 +13758,7 @@
         <v>632</v>
       </c>
       <c r="E629" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="630" spans="1:5">
@@ -13736,7 +13775,7 @@
         <v>633</v>
       </c>
       <c r="E630" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="631" spans="1:5">
@@ -13753,7 +13792,7 @@
         <v>634</v>
       </c>
       <c r="E631" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="632" spans="1:5">
@@ -13770,7 +13809,7 @@
         <v>635</v>
       </c>
       <c r="E632" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="633" spans="1:5">
@@ -13787,7 +13826,7 @@
         <v>636</v>
       </c>
       <c r="E633" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="634" spans="1:5">
@@ -13804,7 +13843,7 @@
         <v>637</v>
       </c>
       <c r="E634" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="635" spans="1:5">
@@ -13821,7 +13860,7 @@
         <v>638</v>
       </c>
       <c r="E635" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="636" spans="1:5">
@@ -13838,7 +13877,7 @@
         <v>639</v>
       </c>
       <c r="E636" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="637" spans="1:5">
@@ -13855,7 +13894,7 @@
         <v>640</v>
       </c>
       <c r="E637" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="638" spans="1:5">
@@ -13872,7 +13911,7 @@
         <v>641</v>
       </c>
       <c r="E638" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="639" spans="1:5">
@@ -13889,7 +13928,7 @@
         <v>642</v>
       </c>
       <c r="E639" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="640" spans="1:5">
@@ -13906,7 +13945,7 @@
         <v>643</v>
       </c>
       <c r="E640" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="641" spans="1:5">
@@ -13923,7 +13962,7 @@
         <v>644</v>
       </c>
       <c r="E641" t="s">
-        <v>819</v>
+        <v>832</v>
       </c>
     </row>
     <row r="642" spans="1:5">
@@ -13940,7 +13979,7 @@
         <v>645</v>
       </c>
       <c r="E642" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="643" spans="1:5">
@@ -13957,7 +13996,7 @@
         <v>646</v>
       </c>
       <c r="E643" t="s">
-        <v>815</v>
+        <v>828</v>
       </c>
     </row>
     <row r="644" spans="1:5">
@@ -13974,7 +14013,7 @@
         <v>647</v>
       </c>
       <c r="E644" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="645" spans="1:5">
@@ -13991,7 +14030,7 @@
         <v>648</v>
       </c>
       <c r="E645" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="646" spans="1:5">
@@ -14008,7 +14047,7 @@
         <v>649</v>
       </c>
       <c r="E646" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="647" spans="1:5">
@@ -14025,7 +14064,7 @@
         <v>650</v>
       </c>
       <c r="E647" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="648" spans="1:5">
@@ -14042,7 +14081,7 @@
         <v>651</v>
       </c>
       <c r="E648" t="s">
-        <v>827</v>
+        <v>840</v>
       </c>
     </row>
     <row r="649" spans="1:5">
@@ -14059,7 +14098,7 @@
         <v>652</v>
       </c>
       <c r="E649" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -14076,7 +14115,7 @@
         <v>653</v>
       </c>
       <c r="E650" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="651" spans="1:5">
@@ -14093,7 +14132,7 @@
         <v>654</v>
       </c>
       <c r="E651" t="s">
-        <v>857</v>
+        <v>870</v>
       </c>
     </row>
     <row r="652" spans="1:5">
@@ -14110,7 +14149,7 @@
         <v>655</v>
       </c>
       <c r="E652" t="s">
-        <v>863</v>
+        <v>876</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -14127,7 +14166,7 @@
         <v>656</v>
       </c>
       <c r="E653" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -14144,7 +14183,7 @@
         <v>657</v>
       </c>
       <c r="E654" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -14161,7 +14200,7 @@
         <v>658</v>
       </c>
       <c r="E655" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -14178,7 +14217,7 @@
         <v>659</v>
       </c>
       <c r="E656" t="s">
-        <v>832</v>
+        <v>845</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -14195,7 +14234,7 @@
         <v>660</v>
       </c>
       <c r="E657" t="s">
-        <v>836</v>
+        <v>849</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -14212,7 +14251,7 @@
         <v>661</v>
       </c>
       <c r="E658" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -14229,7 +14268,7 @@
         <v>662</v>
       </c>
       <c r="E659" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -14246,7 +14285,7 @@
         <v>663</v>
       </c>
       <c r="E660" t="s">
-        <v>844</v>
+        <v>857</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -14263,7 +14302,7 @@
         <v>664</v>
       </c>
       <c r="E661" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -14280,7 +14319,7 @@
         <v>665</v>
       </c>
       <c r="E662" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -14297,7 +14336,7 @@
         <v>666</v>
       </c>
       <c r="E663" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -14314,7 +14353,7 @@
         <v>667</v>
       </c>
       <c r="E664" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -14331,7 +14370,7 @@
         <v>668</v>
       </c>
       <c r="E665" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -14348,7 +14387,7 @@
         <v>669</v>
       </c>
       <c r="E666" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -14365,7 +14404,7 @@
         <v>670</v>
       </c>
       <c r="E667" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="668" spans="1:5">
@@ -14382,7 +14421,7 @@
         <v>671</v>
       </c>
       <c r="E668" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="669" spans="1:5">
@@ -14399,7 +14438,7 @@
         <v>672</v>
       </c>
       <c r="E669" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="670" spans="1:5">
@@ -14416,7 +14455,7 @@
         <v>673</v>
       </c>
       <c r="E670" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="671" spans="1:5">
@@ -14433,7 +14472,7 @@
         <v>674</v>
       </c>
       <c r="E671" t="s">
-        <v>833</v>
+        <v>846</v>
       </c>
     </row>
     <row r="672" spans="1:5">
@@ -14450,7 +14489,7 @@
         <v>675</v>
       </c>
       <c r="E672" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="673" spans="1:5">
@@ -14467,7 +14506,7 @@
         <v>676</v>
       </c>
       <c r="E673" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="674" spans="1:5">
@@ -14484,7 +14523,7 @@
         <v>677</v>
       </c>
       <c r="E674" t="s">
-        <v>829</v>
+        <v>842</v>
       </c>
     </row>
     <row r="675" spans="1:5">
@@ -14501,7 +14540,7 @@
         <v>678</v>
       </c>
       <c r="E675" t="s">
-        <v>825</v>
+        <v>838</v>
       </c>
     </row>
     <row r="676" spans="1:5">
@@ -14518,7 +14557,7 @@
         <v>679</v>
       </c>
       <c r="E676" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="677" spans="1:5">
@@ -14535,7 +14574,7 @@
         <v>680</v>
       </c>
       <c r="E677" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="678" spans="1:5">
@@ -14552,7 +14591,7 @@
         <v>681</v>
       </c>
       <c r="E678" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="679" spans="1:5">
@@ -14569,7 +14608,7 @@
         <v>682</v>
       </c>
       <c r="E679" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="680" spans="1:5">
@@ -14586,7 +14625,7 @@
         <v>683</v>
       </c>
       <c r="E680" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="681" spans="1:5">
@@ -14603,7 +14642,7 @@
         <v>684</v>
       </c>
       <c r="E681" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="682" spans="1:5">
@@ -14620,7 +14659,7 @@
         <v>685</v>
       </c>
       <c r="E682" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="683" spans="1:5">
@@ -14637,7 +14676,7 @@
         <v>686</v>
       </c>
       <c r="E683" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="684" spans="1:5">
@@ -14654,7 +14693,7 @@
         <v>687</v>
       </c>
       <c r="E684" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="685" spans="1:5">
@@ -14671,7 +14710,7 @@
         <v>688</v>
       </c>
       <c r="E685" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="686" spans="1:5">
@@ -14688,7 +14727,7 @@
         <v>689</v>
       </c>
       <c r="E686" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="687" spans="1:5">
@@ -14705,7 +14744,7 @@
         <v>690</v>
       </c>
       <c r="E687" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="688" spans="1:5">
@@ -14722,7 +14761,7 @@
         <v>691</v>
       </c>
       <c r="E688" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="689" spans="1:5">
@@ -14739,7 +14778,7 @@
         <v>692</v>
       </c>
       <c r="E689" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="690" spans="1:5">
@@ -14756,7 +14795,7 @@
         <v>693</v>
       </c>
       <c r="E690" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="691" spans="1:5">
@@ -14773,7 +14812,7 @@
         <v>694</v>
       </c>
       <c r="E691" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="692" spans="1:5">
@@ -14790,7 +14829,7 @@
         <v>695</v>
       </c>
       <c r="E692" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="693" spans="1:5">
@@ -14807,7 +14846,7 @@
         <v>696</v>
       </c>
       <c r="E693" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="694" spans="1:5">
@@ -14824,7 +14863,7 @@
         <v>697</v>
       </c>
       <c r="E694" t="s">
-        <v>835</v>
+        <v>848</v>
       </c>
     </row>
     <row r="695" spans="1:5">
@@ -14841,7 +14880,7 @@
         <v>698</v>
       </c>
       <c r="E695" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="696" spans="1:5">
@@ -14858,7 +14897,7 @@
         <v>699</v>
       </c>
       <c r="E696" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="697" spans="1:5">
@@ -14875,7 +14914,7 @@
         <v>700</v>
       </c>
       <c r="E697" t="s">
-        <v>834</v>
+        <v>847</v>
       </c>
     </row>
     <row r="698" spans="1:5">
@@ -14892,7 +14931,7 @@
         <v>701</v>
       </c>
       <c r="E698" t="s">
-        <v>831</v>
+        <v>844</v>
       </c>
     </row>
     <row r="699" spans="1:5">
@@ -14909,7 +14948,7 @@
         <v>702</v>
       </c>
       <c r="E699" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="700" spans="1:5">
@@ -14926,7 +14965,7 @@
         <v>703</v>
       </c>
       <c r="E700" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="701" spans="1:5">
@@ -14943,7 +14982,7 @@
         <v>704</v>
       </c>
       <c r="E701" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="702" spans="1:5">
@@ -14960,7 +14999,7 @@
         <v>705</v>
       </c>
       <c r="E702" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="703" spans="1:5">
@@ -14977,7 +15016,7 @@
         <v>706</v>
       </c>
       <c r="E703" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="704" spans="1:5">
@@ -14994,7 +15033,7 @@
         <v>707</v>
       </c>
       <c r="E704" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="705" spans="1:5">
@@ -15011,7 +15050,7 @@
         <v>708</v>
       </c>
       <c r="E705" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="706" spans="1:5">
@@ -15028,7 +15067,7 @@
         <v>709</v>
       </c>
       <c r="E706" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="707" spans="1:5">
@@ -15045,7 +15084,7 @@
         <v>710</v>
       </c>
       <c r="E707" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="708" spans="1:5">
@@ -15062,7 +15101,7 @@
         <v>711</v>
       </c>
       <c r="E708" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="709" spans="1:5">
@@ -15079,7 +15118,7 @@
         <v>712</v>
       </c>
       <c r="E709" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
     </row>
     <row r="710" spans="1:5">
@@ -15096,7 +15135,7 @@
         <v>713</v>
       </c>
       <c r="E710" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="711" spans="1:5">
@@ -15113,7 +15152,7 @@
         <v>714</v>
       </c>
       <c r="E711" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="712" spans="1:5">
@@ -15130,7 +15169,7 @@
         <v>715</v>
       </c>
       <c r="E712" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="713" spans="1:5">
@@ -15147,7 +15186,7 @@
         <v>716</v>
       </c>
       <c r="E713" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="714" spans="1:5">
@@ -15164,7 +15203,7 @@
         <v>717</v>
       </c>
       <c r="E714" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="715" spans="1:5">
@@ -15181,7 +15220,7 @@
         <v>718</v>
       </c>
       <c r="E715" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="716" spans="1:5">
@@ -15198,7 +15237,7 @@
         <v>719</v>
       </c>
       <c r="E716" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="717" spans="1:5">
@@ -15215,7 +15254,7 @@
         <v>720</v>
       </c>
       <c r="E717" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="718" spans="1:5">
@@ -15232,7 +15271,7 @@
         <v>721</v>
       </c>
       <c r="E718" t="s">
-        <v>823</v>
+        <v>836</v>
       </c>
     </row>
     <row r="719" spans="1:5">
@@ -15249,7 +15288,7 @@
         <v>722</v>
       </c>
       <c r="E719" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="720" spans="1:5">
@@ -15266,7 +15305,7 @@
         <v>723</v>
       </c>
       <c r="E720" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="721" spans="1:5">
@@ -15283,7 +15322,7 @@
         <v>724</v>
       </c>
       <c r="E721" t="s">
-        <v>814</v>
+        <v>827</v>
       </c>
     </row>
     <row r="722" spans="1:5">
@@ -15300,7 +15339,7 @@
         <v>725</v>
       </c>
       <c r="E722" t="s">
-        <v>762</v>
+        <v>775</v>
       </c>
     </row>
     <row r="723" spans="1:5">
@@ -15317,7 +15356,7 @@
         <v>726</v>
       </c>
       <c r="E723" t="s">
-        <v>817</v>
+        <v>830</v>
       </c>
     </row>
     <row r="724" spans="1:5">
@@ -15334,7 +15373,7 @@
         <v>727</v>
       </c>
       <c r="E724" t="s">
-        <v>812</v>
+        <v>825</v>
       </c>
     </row>
     <row r="725" spans="1:5">
@@ -15351,7 +15390,7 @@
         <v>728</v>
       </c>
       <c r="E725" t="s">
-        <v>821</v>
+        <v>834</v>
       </c>
     </row>
     <row r="726" spans="1:5">
@@ -15368,7 +15407,7 @@
         <v>729</v>
       </c>
       <c r="E726" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="727" spans="1:5">
@@ -15385,7 +15424,7 @@
         <v>730</v>
       </c>
       <c r="E727" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="728" spans="1:5">
@@ -15402,7 +15441,7 @@
         <v>731</v>
       </c>
       <c r="E728" t="s">
-        <v>818</v>
+        <v>831</v>
       </c>
     </row>
     <row r="729" spans="1:5">
@@ -15419,7 +15458,7 @@
         <v>732</v>
       </c>
       <c r="E729" t="s">
-        <v>816</v>
+        <v>829</v>
       </c>
     </row>
     <row r="730" spans="1:5">
@@ -15436,7 +15475,7 @@
         <v>733</v>
       </c>
       <c r="E730" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="731" spans="1:5">
@@ -15453,7 +15492,7 @@
         <v>734</v>
       </c>
       <c r="E731" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
     <row r="732" spans="1:5">
@@ -15470,7 +15509,7 @@
         <v>735</v>
       </c>
       <c r="E732" t="s">
-        <v>822</v>
+        <v>835</v>
       </c>
     </row>
     <row r="733" spans="1:5">
@@ -15487,7 +15526,7 @@
         <v>736</v>
       </c>
       <c r="E733" t="s">
-        <v>813</v>
+        <v>826</v>
       </c>
     </row>
     <row r="734" spans="1:5">
@@ -15504,7 +15543,7 @@
         <v>737</v>
       </c>
       <c r="E734" t="s">
-        <v>828</v>
+        <v>841</v>
       </c>
     </row>
     <row r="735" spans="1:5">
@@ -15521,7 +15560,7 @@
         <v>738</v>
       </c>
       <c r="E735" t="s">
-        <v>824</v>
+        <v>837</v>
       </c>
     </row>
     <row r="736" spans="1:5">
@@ -15538,7 +15577,7 @@
         <v>739</v>
       </c>
       <c r="E736" t="s">
-        <v>792</v>
+        <v>805</v>
       </c>
     </row>
     <row r="737" spans="1:5">
@@ -15555,7 +15594,7 @@
         <v>740</v>
       </c>
       <c r="E737" t="s">
-        <v>877</v>
+        <v>890</v>
       </c>
     </row>
     <row r="738" spans="1:5">
@@ -15572,7 +15611,7 @@
         <v>741</v>
       </c>
       <c r="E738" t="s">
-        <v>878</v>
+        <v>891</v>
       </c>
     </row>
     <row r="739" spans="1:5">
@@ -15589,7 +15628,7 @@
         <v>742</v>
       </c>
       <c r="E739" t="s">
-        <v>879</v>
+        <v>892</v>
       </c>
     </row>
     <row r="740" spans="1:5">
@@ -15606,7 +15645,7 @@
         <v>743</v>
       </c>
       <c r="E740" t="s">
-        <v>880</v>
+        <v>893</v>
       </c>
     </row>
     <row r="741" spans="1:5">
@@ -15623,7 +15662,7 @@
         <v>744</v>
       </c>
       <c r="E741" t="s">
-        <v>881</v>
+        <v>894</v>
       </c>
     </row>
     <row r="742" spans="1:5">
@@ -15640,7 +15679,7 @@
         <v>745</v>
       </c>
       <c r="E742" t="s">
-        <v>804</v>
+        <v>817</v>
       </c>
     </row>
     <row r="743" spans="1:5">
@@ -15657,7 +15696,7 @@
         <v>746</v>
       </c>
       <c r="E743" t="s">
-        <v>793</v>
+        <v>806</v>
       </c>
     </row>
     <row r="744" spans="1:5">
@@ -15674,7 +15713,7 @@
         <v>747</v>
       </c>
       <c r="E744" t="s">
-        <v>797</v>
+        <v>810</v>
       </c>
     </row>
     <row r="745" spans="1:5">
@@ -15691,7 +15730,7 @@
         <v>748</v>
       </c>
       <c r="E745" t="s">
-        <v>806</v>
+        <v>819</v>
       </c>
     </row>
     <row r="746" spans="1:5">
@@ -15708,7 +15747,7 @@
         <v>749</v>
       </c>
       <c r="E746" t="s">
-        <v>882</v>
+        <v>895</v>
       </c>
     </row>
     <row r="747" spans="1:5">
@@ -15725,7 +15764,7 @@
         <v>750</v>
       </c>
       <c r="E747" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="748" spans="1:5">
@@ -15742,7 +15781,7 @@
         <v>751</v>
       </c>
       <c r="E748" t="s">
-        <v>883</v>
+        <v>896</v>
       </c>
     </row>
     <row r="749" spans="1:5">
@@ -15759,7 +15798,7 @@
         <v>752</v>
       </c>
       <c r="E749" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="750" spans="1:5">
@@ -15776,7 +15815,7 @@
         <v>753</v>
       </c>
       <c r="E750" t="s">
-        <v>757</v>
+        <v>781</v>
       </c>
     </row>
     <row r="751" spans="1:5">
@@ -15793,7 +15832,228 @@
         <v>754</v>
       </c>
       <c r="E751" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5">
+      <c r="A752" s="1">
+        <v>750</v>
+      </c>
+      <c r="B752" t="s">
+        <v>4</v>
+      </c>
+      <c r="C752" t="s">
+        <v>4</v>
+      </c>
+      <c r="D752" t="s">
+        <v>755</v>
+      </c>
+      <c r="E752" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5">
+      <c r="A753" s="1">
+        <v>751</v>
+      </c>
+      <c r="B753" t="s">
+        <v>4</v>
+      </c>
+      <c r="C753" t="s">
+        <v>4</v>
+      </c>
+      <c r="D753" t="s">
+        <v>756</v>
+      </c>
+      <c r="E753" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5">
+      <c r="A754" s="1">
+        <v>752</v>
+      </c>
+      <c r="B754" t="s">
+        <v>4</v>
+      </c>
+      <c r="C754" t="s">
+        <v>4</v>
+      </c>
+      <c r="D754" t="s">
+        <v>757</v>
+      </c>
+      <c r="E754" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5">
+      <c r="A755" s="1">
+        <v>753</v>
+      </c>
+      <c r="B755" t="s">
+        <v>4</v>
+      </c>
+      <c r="C755" t="s">
+        <v>4</v>
+      </c>
+      <c r="D755" t="s">
+        <v>758</v>
+      </c>
+      <c r="E755" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5">
+      <c r="A756" s="1">
+        <v>754</v>
+      </c>
+      <c r="B756" t="s">
+        <v>4</v>
+      </c>
+      <c r="C756" t="s">
+        <v>4</v>
+      </c>
+      <c r="D756" t="s">
+        <v>759</v>
+      </c>
+      <c r="E756" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5">
+      <c r="A757" s="1">
+        <v>755</v>
+      </c>
+      <c r="B757" t="s">
+        <v>4</v>
+      </c>
+      <c r="C757" t="s">
+        <v>4</v>
+      </c>
+      <c r="D757" t="s">
+        <v>760</v>
+      </c>
+      <c r="E757" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5">
+      <c r="A758" s="1">
+        <v>756</v>
+      </c>
+      <c r="B758" t="s">
+        <v>4</v>
+      </c>
+      <c r="C758" t="s">
+        <v>4</v>
+      </c>
+      <c r="D758" t="s">
+        <v>761</v>
+      </c>
+      <c r="E758" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5">
+      <c r="A759" s="1">
+        <v>757</v>
+      </c>
+      <c r="B759" t="s">
+        <v>4</v>
+      </c>
+      <c r="C759" t="s">
+        <v>4</v>
+      </c>
+      <c r="D759" t="s">
+        <v>762</v>
+      </c>
+      <c r="E759" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5">
+      <c r="A760" s="1">
+        <v>758</v>
+      </c>
+      <c r="B760" t="s">
+        <v>4</v>
+      </c>
+      <c r="C760" t="s">
+        <v>4</v>
+      </c>
+      <c r="D760" t="s">
         <v>763</v>
+      </c>
+      <c r="E760" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5">
+      <c r="A761" s="1">
+        <v>759</v>
+      </c>
+      <c r="B761" t="s">
+        <v>4</v>
+      </c>
+      <c r="C761" t="s">
+        <v>4</v>
+      </c>
+      <c r="D761" t="s">
+        <v>764</v>
+      </c>
+      <c r="E761" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5">
+      <c r="A762" s="1">
+        <v>760</v>
+      </c>
+      <c r="B762" t="s">
+        <v>4</v>
+      </c>
+      <c r="C762" t="s">
+        <v>4</v>
+      </c>
+      <c r="D762" t="s">
+        <v>765</v>
+      </c>
+      <c r="E762" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5">
+      <c r="A763" s="1">
+        <v>761</v>
+      </c>
+      <c r="B763" t="s">
+        <v>4</v>
+      </c>
+      <c r="C763" t="s">
+        <v>4</v>
+      </c>
+      <c r="D763" t="s">
+        <v>766</v>
+      </c>
+      <c r="E763" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5">
+      <c r="A764" s="1">
+        <v>762</v>
+      </c>
+      <c r="B764" t="s">
+        <v>4</v>
+      </c>
+      <c r="C764" t="s">
+        <v>4</v>
+      </c>
+      <c r="D764" t="s">
+        <v>767</v>
+      </c>
+      <c r="E764" t="s">
+        <v>858</v>
       </c>
     </row>
   </sheetData>
